--- a/demo_files/output/Complexity.xlsx
+++ b/demo_files/output/Complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eycanada-my.sharepoint.com/personal/walid_ben_romdhane_ca_ey_com/Documents/Desktop/Work/git/SQL-Converter/files/content_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7B258E5B8E3F8535DF4830BB49678E509880043E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCCE2D4-1F95-4781-A522-B12403476DCA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_7B258E5B8E3F8535DF4830BB49678E509880043E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CC6B31-D6F5-4C96-8D24-EBC2128BFFFD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,93 +60,48 @@
     <t>Nested Queries</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\avg_sal.sql</t>
-  </si>
-  <si>
     <t>avg_sal.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\cursor.sql</t>
-  </si>
-  <si>
     <t>cursor.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\error_handle.sql</t>
-  </si>
-  <si>
     <t>error_handle.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\loop.sql</t>
-  </si>
-  <si>
     <t>loop.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\nestloop.sql</t>
-  </si>
-  <si>
     <t>nestloop.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\stringfunc.sql</t>
-  </si>
-  <si>
     <t>stringfunc.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\billing.sql</t>
-  </si>
-  <si>
     <t>billing.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\employee_ops.sql</t>
-  </si>
-  <si>
     <t>employee_ops.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\error_handling.sql</t>
-  </si>
-  <si>
     <t>error_handling.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\financial_ops.sql</t>
-  </si>
-  <si>
     <t>financial_ops.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\general_ops.sql</t>
-  </si>
-  <si>
     <t>general_ops.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\inventory_ops.sql</t>
-  </si>
-  <si>
     <t>inventory_ops.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\payroll_ops.sql</t>
-  </si>
-  <si>
     <t>payroll_ops.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\product_ops.sql</t>
-  </si>
-  <si>
     <t>product_ops.sql</t>
   </si>
   <si>
-    <t>files/content_assessment/DEMO_DB\PLSQL\JTA\triggers.sql</t>
-  </si>
-  <si>
     <t>triggers.sql</t>
   </si>
   <si>
@@ -265,6 +220,51 @@
   </si>
   <si>
     <t>report9.et</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/avg_sal.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/cursor.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/error_handle.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/loop.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/nestloop.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/stringfunc.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/billing.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/employee_ops.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/error_handling.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/financial_ops.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/general_ops.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/inventory_ops.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/payroll_ops.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/product_ops.sql</t>
+  </si>
+  <si>
+    <t>files/content_assessment/PLSQL/JTA/triggers.sql</t>
   </si>
 </sst>
 </file>
@@ -340,6 +340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,12 +634,12 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="A1:L16"/>
+      <selection sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
@@ -689,10 +693,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -727,10 +731,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -765,10 +769,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -803,10 +807,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -841,10 +845,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -879,10 +883,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -917,10 +921,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>409</v>
@@ -955,10 +959,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>166</v>
@@ -993,10 +997,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>80</v>
@@ -1031,10 +1035,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>227</v>
@@ -1069,10 +1073,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>127</v>
@@ -1107,10 +1111,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>246</v>
@@ -1145,10 +1149,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>142</v>
@@ -1183,10 +1187,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>201</v>
@@ -1221,10 +1225,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>93</v>
@@ -1284,16 +1288,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1302,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -1314,21 +1318,21 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>143</v>
@@ -1378,10 +1382,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>185</v>
@@ -1431,10 +1435,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>329</v>
@@ -1484,10 +1488,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>206</v>
@@ -1537,10 +1541,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>34</v>
@@ -1615,16 +1619,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1633,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -1644,10 +1648,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -1685,10 +1689,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>48</v>
@@ -1726,10 +1730,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>77</v>
@@ -1767,10 +1771,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>110</v>
@@ -1808,10 +1812,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -1849,10 +1853,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1890,10 +1894,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1931,10 +1935,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>111</v>
@@ -1972,10 +1976,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>43</v>
@@ -2013,10 +2017,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>1531</v>

--- a/demo_files/output/Complexity.xlsx
+++ b/demo_files/output/Complexity.xlsx
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\avg_sal.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\avg_sal.sql</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\cursor.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\cursor.sql</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\error_handle.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\error_handle.sql</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\loop.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\loop.sql</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\nestloop.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\nestloop.sql</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\stringfunc.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\stringfunc.sql</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\billing.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\billing.sql</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -794,7 +794,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\employee_ops.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\employee_ops.sql</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\error_handling.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\error_handling.sql</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\financial_ops.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\financial_ops.sql</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\general_ops.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\general_ops.sql</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -962,7 +962,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\inventory_ops.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\inventory_ops.sql</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\payroll_ops.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\payroll_ops.sql</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1046,7 +1046,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\product_ops.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\product_ops.sql</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\PLSQL\JTA\triggers.sql</t>
+          <t>demo_files/DEMO_DB\PLSQL\JTA\triggers.sql</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\SQR\data_inserter.sqr</t>
+          <t>demo_files/DEMO_DB\SQR\data_inserter.sqr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\SQR\dates.sqr</t>
+          <t>demo_files/DEMO_DB\SQR\dates.sqr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1350,7 +1350,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\SQR\excel.sqr</t>
+          <t>demo_files/DEMO_DB\SQR\excel.sqr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1407,7 +1407,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\SQR\multiple_rep.sqr</t>
+          <t>demo_files/DEMO_DB\SQR\multiple_rep.sqr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\SQR\process_name.sqr</t>
+          <t>demo_files/DEMO_DB\SQR\process_name.sqr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1607,7 +1607,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report.et</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1652,7 +1652,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report10.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report10.et</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1697,7 +1697,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report2.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report2.et</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1742,7 +1742,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report3.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report3.et</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1787,7 +1787,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report4.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report4.et</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1832,7 +1832,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report5.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report5.et</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1877,7 +1877,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report6.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report6.et</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1922,7 +1922,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report7.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report7.et</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1967,7 +1967,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report8.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report8.et</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2012,7 +2012,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>files/content_assessment/DEMO_DB\EasyTrieve\report9.et</t>
+          <t>demo_files/DEMO_DB\EasyTrieve\report9.et</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
